--- a/Diseño/DCU_Tables_Medico.xlsx
+++ b/Diseño/DCU_Tables_Medico.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr showInkAnnotation="0"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alejandra\Desktop\TT1\gab\TT1\Diseño\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GabrielaSaldaña\Documents\TT1\TT_1\Diseño\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="72">
   <si>
     <t>NOMBRE</t>
   </si>
@@ -76,25 +76,10 @@
 y contar con una cuenta previamente registrada.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Se despliega un apartado con los datos personales del usuario
-2. Se despliega una lista de notificaciones </t>
-  </si>
-  <si>
     <t>La aplicación no muestra las notificaciónes ni los datos personales</t>
   </si>
   <si>
     <t>Usuario: Médico</t>
-  </si>
-  <si>
-    <t>El usuario podrá visualizar de una lista dinámica de
-pacientes en esta puede aplicar alguna de las siguientes
-operaciones : visualizar información del paciente seleccionado, eliminar u agregar  un paciente.</t>
-  </si>
-  <si>
-    <t>1. Se despliega una lista de pacientes
-2. El usuario selecciona un paciente para : ver u eliminar
-o puede elegir agregar un nuevo paciente a su lista para lo cual se
-importaran automáticamente los datos de este a su lista.</t>
   </si>
   <si>
     <t xml:space="preserve">1.El ususario no visualiza ni elimina a ningun paciente.
@@ -114,17 +99,11 @@
     <t>La aplicación no muestra el contenido deseado correctamente.</t>
   </si>
   <si>
-    <t>LISTA PACIENTES (AGREGAR Y ELIMINAR), IMPORTAR LA INFORMACIÓN DEL PACIENTE (MENU)</t>
-  </si>
-  <si>
     <t>El usuario debe haber iniciado sesión correctamente
  y haber entrado a superfil .</t>
   </si>
   <si>
     <t>RF16</t>
-  </si>
-  <si>
-    <t>VISTA PACIENTE DATOS Y VARIABLES (MENU 2)</t>
   </si>
   <si>
     <t>RF9, RF17, RF3</t>
@@ -168,9 +147,6 @@
     <t>CASOS DE USO PARA EL MÉDICO</t>
   </si>
   <si>
-    <t>REGISTRO USUARIO</t>
-  </si>
-  <si>
     <t xml:space="preserve">  RF2, RF8</t>
   </si>
   <si>
@@ -187,10 +163,6 @@
     <t>Ninguno</t>
   </si>
   <si>
-    <t>El usuario podra visualizar las notificaciones que ha tenido
-además de tener un apartado con sus datos personales donde puede modificarlos.</t>
-  </si>
-  <si>
     <t>El usuario debe tener una cuenta de correo electronico, haberse registrado previamente e iniciar sesión.</t>
   </si>
   <si>
@@ -198,9 +170,6 @@
   </si>
   <si>
     <t xml:space="preserve">  RF3</t>
-  </si>
-  <si>
-    <t>PERFIL DATOS PERSONALES  (PRINCIPAL)</t>
   </si>
   <si>
     <t>NOTIFICACIONES (PRINCIPAL)</t>
@@ -227,12 +196,90 @@
   </si>
   <si>
     <t>Usuario no registrado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Se despliega un apartado con el menu
+2. Se despliega una lista de notificaciones </t>
+  </si>
+  <si>
+    <t>PERFIL  (PRINCIPAL)</t>
+  </si>
+  <si>
+    <t>El usuario podra visualizar las notificaciones que ha tenido
+además de tener un apartado con sus datos personales donde puede modificarlos y ver la lista de pacientes.</t>
+  </si>
+  <si>
+    <t>El usuario podrá visualizar en una lista  a sus
+pacientes en esta puede aplicar alguna de las siguientes
+operaciones : visualizar información del paciente seleccionado, eliminar, modificar u agregar  un paciente.</t>
+  </si>
+  <si>
+    <t>LISTA PACIENTES (MENU)</t>
+  </si>
+  <si>
+    <t>1. Se despliega una lista de pacientes
+2. El usuario selecciona un paciente para : ver, modificar  o eliminar
+o puede elegir agregar un nuevo paciente.
+importaran automáticamente los datos de este a su lista.</t>
+  </si>
+  <si>
+    <t>REGISTRO MÉDICO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usuario: Medico </t>
+  </si>
+  <si>
+    <t>REGISTRO PACIENTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  RF2,  RF9</t>
+  </si>
+  <si>
+    <t>1. El usuario introduce los datos personales del paciente
+2. El usuario acepta terminos.</t>
+  </si>
+  <si>
+    <t>Los datos no son correctos, registro incompleto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanto el pacinete como el usuario deben tener una cuenta de correo electronico. </t>
+  </si>
+  <si>
+    <t>El usuario introducirá algunos datos personales a cerca del paciente.</t>
+  </si>
+  <si>
+    <t>CONECTAR DISPOSITIVO NUEVO  (MENU)</t>
+  </si>
+  <si>
+    <t>RF4, RF5, RF7, RF11, RF12</t>
+  </si>
+  <si>
+    <t>Haber iniciado sesion correctamente y tener conectado el dispositivo físico correctamente, asi como su variable asociada</t>
+  </si>
+  <si>
+    <t>El usuario puede agregar el dispositivo al sistema de una forma sencilla y útil</t>
+  </si>
+  <si>
+    <t>1. El usuario selecciona la opción de conectar nuevo dispositivo.
+2. Busca el dispositivo instalado previamente por el médico.
+3. Se reconocerá el dispositivo y se podrá mostrar la info.                                4. El usuario puede agregar variables</t>
+  </si>
+  <si>
+    <t>1.El usuario no wncuentra como agregar dispositivo.
+2.El ususario decide no agregar el dispositivo adicional.</t>
+  </si>
+  <si>
+    <t>1.La aplicación falla al momento de agregar el dispositivo.
+2.La aplicación no permite agregar dispositivos adicionales.</t>
+  </si>
+  <si>
+    <t>VISTA PACIENTE DATOS Y VARIABLES (MENU)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -628,10 +675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G40"/>
+  <dimension ref="B1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,7 +692,7 @@
   <sheetData>
     <row r="1" spans="2:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C1" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
@@ -659,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
@@ -667,13 +714,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
@@ -687,7 +734,7 @@
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -701,7 +748,7 @@
         <v>3</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -715,7 +762,7 @@
         <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -729,7 +776,7 @@
         <v>4</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -737,13 +784,13 @@
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
@@ -765,13 +812,13 @@
         <v>0</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
@@ -779,13 +826,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
@@ -813,7 +860,7 @@
         <v>3</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="45.75" x14ac:dyDescent="0.3">
@@ -821,13 +868,13 @@
         <v>5</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G17" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="30.75" x14ac:dyDescent="0.3">
@@ -835,13 +882,13 @@
         <v>4</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="30.75" x14ac:dyDescent="0.3">
@@ -849,13 +896,13 @@
         <v>6</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
@@ -863,27 +910,27 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" ht="28.5" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
@@ -891,13 +938,13 @@
         <v>1</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
@@ -905,7 +952,7 @@
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>2</v>
@@ -919,13 +966,13 @@
         <v>3</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="60.75" x14ac:dyDescent="0.3">
@@ -933,13 +980,13 @@
         <v>5</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G27" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="60.75" x14ac:dyDescent="0.3">
@@ -947,13 +994,13 @@
         <v>4</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="60.75" x14ac:dyDescent="0.3">
@@ -961,13 +1008,13 @@
         <v>6</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
@@ -975,81 +1022,193 @@
         <v>7</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G30" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" ht="16.5" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" ht="16.5" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" ht="16.5" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" ht="30.75" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="30.75" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" ht="75.75" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" ht="75.75" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" ht="60.75" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="60.75" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" ht="45.75" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" ht="45.75" x14ac:dyDescent="0.3">
       <c r="B39" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" ht="60.75" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" ht="60.75" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B45" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="B46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="B47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" ht="60.75" x14ac:dyDescent="0.3">
+      <c r="B48" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="B49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="B50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Diseño/DCU_Tables_Medico.xlsx
+++ b/Diseño/DCU_Tables_Medico.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -175,9 +175,6 @@
     <t>NOTIFICACIONES (PRINCIPAL)</t>
   </si>
   <si>
-    <t>El usuario podrá recibir , eliminar y enviar notificaciones a cerca de sucesos importantes.</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Se despliega una lista de notificaciones con sus opciones.
 </t>
   </si>
@@ -198,82 +195,85 @@
     <t>Usuario no registrado.</t>
   </si>
   <si>
+    <t>LISTA PACIENTES (MENU)</t>
+  </si>
+  <si>
+    <t>REGISTRO MÉDICO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usuario: Medico </t>
+  </si>
+  <si>
+    <t>REGISTRO PACIENTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  RF2,  RF9</t>
+  </si>
+  <si>
+    <t>1. El usuario introduce los datos personales del paciente
+2. El usuario acepta terminos.</t>
+  </si>
+  <si>
+    <t>Los datos no son correctos, registro incompleto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanto el pacinete como el usuario deben tener una cuenta de correo electronico. </t>
+  </si>
+  <si>
+    <t>El usuario introducirá algunos datos personales a cerca del paciente.</t>
+  </si>
+  <si>
+    <t>RF4, RF5, RF7, RF11, RF12</t>
+  </si>
+  <si>
+    <t>1.La aplicación falla al momento de agregar el dispositivo.
+2.La aplicación no permite agregar dispositivos adicionales.</t>
+  </si>
+  <si>
+    <t>VISTA PACIENTE DATOS Y VARIABLES (MENU)</t>
+  </si>
+  <si>
+    <t>MENU  (PRINCIPAL)</t>
+  </si>
+  <si>
+    <t>El usuario podra visualizar los pacientes que tiene asignados
+además de tener un apartado con sus datos personales donde puede modificarlos , ver sus notificaiones y podrà manejar sus kits de monitoreo para administrar los pacientes asignados a cada uno.</t>
+  </si>
+  <si>
     <t xml:space="preserve">1. Se despliega un apartado con el menu
-2. Se despliega una lista de notificaciones </t>
-  </si>
-  <si>
-    <t>PERFIL  (PRINCIPAL)</t>
-  </si>
-  <si>
-    <t>El usuario podra visualizar las notificaciones que ha tenido
-además de tener un apartado con sus datos personales donde puede modificarlos y ver la lista de pacientes.</t>
+</t>
+  </si>
+  <si>
+    <t>El usuario podrá recibir y  eliminar  notificaciones a cerca de sucesos importantes.</t>
   </si>
   <si>
     <t>El usuario podrá visualizar en una lista  a sus
 pacientes en esta puede aplicar alguna de las siguientes
-operaciones : visualizar información del paciente seleccionado, eliminar, modificar u agregar  un paciente.</t>
-  </si>
-  <si>
-    <t>LISTA PACIENTES (MENU)</t>
+operaciones : visualizar información del paciente seleccionado, eliminar  y  agregar  un paciente.</t>
   </si>
   <si>
     <t>1. Se despliega una lista de pacientes
-2. El usuario selecciona un paciente para : ver, modificar  o eliminar
+2. El usuario selecciona un paciente para : ver y  eliminar
 o puede elegir agregar un nuevo paciente.
 importaran automáticamente los datos de este a su lista.</t>
   </si>
   <si>
-    <t>REGISTRO MÉDICO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Usuario: Medico </t>
-  </si>
-  <si>
-    <t>REGISTRO PACIENTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  RF2,  RF9</t>
-  </si>
-  <si>
-    <t>1. El usuario introduce los datos personales del paciente
-2. El usuario acepta terminos.</t>
-  </si>
-  <si>
-    <t>Los datos no son correctos, registro incompleto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tanto el pacinete como el usuario deben tener una cuenta de correo electronico. </t>
-  </si>
-  <si>
-    <t>El usuario introducirá algunos datos personales a cerca del paciente.</t>
-  </si>
-  <si>
-    <t>CONECTAR DISPOSITIVO NUEVO  (MENU)</t>
-  </si>
-  <si>
-    <t>RF4, RF5, RF7, RF11, RF12</t>
-  </si>
-  <si>
-    <t>Haber iniciado sesion correctamente y tener conectado el dispositivo físico correctamente, asi como su variable asociada</t>
-  </si>
-  <si>
-    <t>El usuario puede agregar el dispositivo al sistema de una forma sencilla y útil</t>
-  </si>
-  <si>
-    <t>1. El usuario selecciona la opción de conectar nuevo dispositivo.
-2. Busca el dispositivo instalado previamente por el médico.
-3. Se reconocerá el dispositivo y se podrá mostrar la info.                                4. El usuario puede agregar variables</t>
-  </si>
-  <si>
-    <t>1.El usuario no wncuentra como agregar dispositivo.
+    <t>ADMINISTRAR NODODS  (MENU)</t>
+  </si>
+  <si>
+    <t>Haber iniciado sesion correctamente y tener  el kit de monitoreo que su mèdico le proporcionarà.</t>
+  </si>
+  <si>
+    <t>El usuario puede agregar el dispositivo al sistema de una forma sencilla y útil, ademàs de asignar pacientes a este.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. El usuario selecciona o crea un  nodo.
+2. Busca el dispositivo en el apartado nodo.
+3.Se agrega el paciente y su variable a ser monitoreada                                   </t>
+  </si>
+  <si>
+    <t>1.El usuario no encuentra como agregar dispositivo.
 2.El ususario decide no agregar el dispositivo adicional.</t>
-  </si>
-  <si>
-    <t>1.La aplicación falla al momento de agregar el dispositivo.
-2.La aplicación no permite agregar dispositivos adicionales.</t>
-  </si>
-  <si>
-    <t>VISTA PACIENTE DATOS Y VARIABLES (MENU)</t>
   </si>
 </sst>
 </file>
@@ -677,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
@@ -734,7 +734,7 @@
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -812,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>0</v>
@@ -863,18 +863,18 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="45.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" ht="60.75" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G17" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="30.75" x14ac:dyDescent="0.3">
@@ -882,13 +882,13 @@
         <v>4</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="30.75" x14ac:dyDescent="0.3">
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
@@ -972,7 +972,7 @@
         <v>3</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="60.75" x14ac:dyDescent="0.3">
@@ -980,13 +980,13 @@
         <v>5</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="60.75" x14ac:dyDescent="0.3">
@@ -994,13 +994,13 @@
         <v>4</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="60.75" x14ac:dyDescent="0.3">
@@ -1028,7 +1028,7 @@
         <v>7</v>
       </c>
       <c r="G30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
@@ -1036,13 +1036,13 @@
         <v>0</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
@@ -1056,7 +1056,7 @@
         <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
@@ -1084,7 +1084,7 @@
         <v>3</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="2:7" ht="75.75" x14ac:dyDescent="0.3">
@@ -1098,7 +1098,7 @@
         <v>5</v>
       </c>
       <c r="G37" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="2:7" ht="60.75" x14ac:dyDescent="0.3">
@@ -1112,7 +1112,7 @@
         <v>4</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="2:7" ht="45.75" x14ac:dyDescent="0.3">
@@ -1126,7 +1126,7 @@
         <v>6</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="2:7" ht="60.75" x14ac:dyDescent="0.3">
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
@@ -1156,7 +1156,7 @@
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
@@ -1172,7 +1172,7 @@
         <v>3</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" spans="2:7" ht="30.75" x14ac:dyDescent="0.3">
@@ -1180,15 +1180,15 @@
         <v>5</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" ht="60.75" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" ht="45.75" x14ac:dyDescent="0.3">
       <c r="B48" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49" spans="2:3" ht="30.75" x14ac:dyDescent="0.3">
@@ -1196,7 +1196,7 @@
         <v>6</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="50" spans="2:3" ht="30.75" x14ac:dyDescent="0.3">
@@ -1204,7 +1204,7 @@
         <v>7</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/Diseño/DCU_Tables_Medico.xlsx
+++ b/Diseño/DCU_Tables_Medico.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
-  <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GabrielaSaldaña\Documents\TT1\TT_1\Diseño\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alejandra\Desktop\TT1\Gab-Mel\TT_1\Diseño\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="68">
   <si>
     <t>NOMBRE</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>LOGIN</t>
-  </si>
-  <si>
-    <t>Usuario: Medico y Paciente</t>
   </si>
   <si>
     <t>El usuario introducirá email y su password para iniciar sesión en la aplicación.</t>
@@ -72,38 +69,7 @@
     <t>El usuario debe haber iniciado sesión.</t>
   </si>
   <si>
-    <t>El usuario debe haber instalado la aplicación 
-y contar con una cuenta previamente registrada.</t>
-  </si>
-  <si>
-    <t>La aplicación no muestra las notificaciónes ni los datos personales</t>
-  </si>
-  <si>
     <t>Usuario: Médico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.El ususario no visualiza ni elimina a ningun paciente.
-2.El usuario no agrega a ningun paciente.
-3.El usuario regresa a la pantalla principal.
-</t>
-  </si>
-  <si>
-    <t>1. El usuario introduce mal alguno de sus datos
-2. El usuario no inicia sesión</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.El usuario cierra su sesión.
-</t>
-  </si>
-  <si>
-    <t>La aplicación no muestra el contenido deseado correctamente.</t>
-  </si>
-  <si>
-    <t>El usuario debe haber iniciado sesión correctamente
- y haber entrado a superfil .</t>
-  </si>
-  <si>
-    <t>RF16</t>
   </si>
   <si>
     <t>RF9, RF17, RF3</t>
@@ -122,57 +88,16 @@
 la opción de ver en un paciente.</t>
   </si>
   <si>
-    <t xml:space="preserve">El ususario pude visualizar información referente
-al paciente como: datos personales y variables
-siendo monitorizadas. También puede agregar archivos útiles sobre el paciente.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.El ususario da click en ver sobre un paciente.
-2.Se despliega información referente al paciente.
-2.Se despliega la opción de agregar archivos adicionales.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.El ususario no da click en ver sobre un paciente.
-2.El ususario decide no agregar archivos adicionales.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.La aplicación falla al momneto de desplegar información referente al paciente.
-2.La aplicación no permite agregar archivos adicionales.
-</t>
-  </si>
-  <si>
     <t>CASOS DE USO PARA EL MÉDICO</t>
   </si>
   <si>
     <t xml:space="preserve">  RF2, RF8</t>
   </si>
   <si>
-    <t>El usuario debe tener una cuenta de correo electronico.</t>
-  </si>
-  <si>
-    <t>El usuario introducirá sus datos personales.</t>
-  </si>
-  <si>
-    <t>1. El usuario introduce sus datos personales
-2. El usuario da en aceptar terminos.</t>
-  </si>
-  <si>
     <t>Ninguno</t>
   </si>
   <si>
-    <t>El usuario debe tener una cuenta de correo electronico, haberse registrado previamente e iniciar sesión.</t>
-  </si>
-  <si>
-    <t>Notificaciones repetidas , notificacion no se muestra.</t>
-  </si>
-  <si>
     <t xml:space="preserve">  RF3</t>
-  </si>
-  <si>
-    <t>NOTIFICACIONES (PRINCIPAL)</t>
   </si>
   <si>
     <t xml:space="preserve">1. Se despliega una lista de notificaciones con sus opciones.
@@ -185,23 +110,11 @@
     <t>El usuario debe tener una cuenta de correo electronico, haberse registrado previamente.</t>
   </si>
   <si>
-    <t>El usuario podrá recibir pormedio de su correo electronico su contraseña.</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.El usuario inserta su correo electronico por el que recibirá su contrasea.
 </t>
   </si>
   <si>
-    <t>Usuario no registrado.</t>
-  </si>
-  <si>
-    <t>LISTA PACIENTES (MENU)</t>
-  </si>
-  <si>
     <t>REGISTRO MÉDICO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Usuario: Medico </t>
   </si>
   <si>
     <t>REGISTRO PACIENTE</t>
@@ -214,57 +127,10 @@
 2. El usuario acepta terminos.</t>
   </si>
   <si>
-    <t>Los datos no son correctos, registro incompleto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tanto el pacinete como el usuario deben tener una cuenta de correo electronico. </t>
-  </si>
-  <si>
-    <t>El usuario introducirá algunos datos personales a cerca del paciente.</t>
-  </si>
-  <si>
     <t>RF4, RF5, RF7, RF11, RF12</t>
   </si>
   <si>
-    <t>1.La aplicación falla al momento de agregar el dispositivo.
-2.La aplicación no permite agregar dispositivos adicionales.</t>
-  </si>
-  <si>
     <t>VISTA PACIENTE DATOS Y VARIABLES (MENU)</t>
-  </si>
-  <si>
-    <t>MENU  (PRINCIPAL)</t>
-  </si>
-  <si>
-    <t>El usuario podra visualizar los pacientes que tiene asignados
-además de tener un apartado con sus datos personales donde puede modificarlos , ver sus notificaiones y podrà manejar sus kits de monitoreo para administrar los pacientes asignados a cada uno.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Se despliega un apartado con el menu
-</t>
-  </si>
-  <si>
-    <t>El usuario podrá recibir y  eliminar  notificaciones a cerca de sucesos importantes.</t>
-  </si>
-  <si>
-    <t>El usuario podrá visualizar en una lista  a sus
-pacientes en esta puede aplicar alguna de las siguientes
-operaciones : visualizar información del paciente seleccionado, eliminar  y  agregar  un paciente.</t>
-  </si>
-  <si>
-    <t>1. Se despliega una lista de pacientes
-2. El usuario selecciona un paciente para : ver y  eliminar
-o puede elegir agregar un nuevo paciente.
-importaran automáticamente los datos de este a su lista.</t>
-  </si>
-  <si>
-    <t>ADMINISTRAR NODODS  (MENU)</t>
-  </si>
-  <si>
-    <t>Haber iniciado sesion correctamente y tener  el kit de monitoreo que su mèdico le proporcionarà.</t>
-  </si>
-  <si>
-    <t>El usuario puede agregar el dispositivo al sistema de una forma sencilla y útil, ademàs de asignar pacientes a este.</t>
   </si>
   <si>
     <t xml:space="preserve">1. El usuario selecciona o crea un  nodo.
@@ -272,14 +138,120 @@
 3.Se agrega el paciente y su variable a ser monitoreada                                   </t>
   </si>
   <si>
+    <t xml:space="preserve">Usuario: Médico </t>
+  </si>
+  <si>
+    <t>El usuario debe haber instalado la aplicación 
+y  debe ser un médico avalado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. El usuario introduce mal alguno de sus datos
+2. El usuario no inicia sesión                                                                                                  </t>
+  </si>
+  <si>
+    <t>El usuario debe tener una cuenta de correo electronico y ser médico avalado</t>
+  </si>
+  <si>
+    <t>El usuario introducirá datos personales que el sistema pida</t>
+  </si>
+  <si>
+    <t>1. El usuario introduce sus datos personales
+2. El usuario acepta terminos.</t>
+  </si>
+  <si>
+    <t>Datos introducidos incompletos o erróneos</t>
+  </si>
+  <si>
+    <t>1. La aplicación no está disponible                                                                                                   2. Mala lectura de los datos</t>
+  </si>
+  <si>
+    <t>PERFIL  (PRINCIPAL)</t>
+  </si>
+  <si>
+    <t>1. Se despliega un apartado con listado de sus pacientes y  con un menú</t>
+  </si>
+  <si>
+    <t>El usuario debe  haberse registrado previamente e iniciar sesión.</t>
+  </si>
+  <si>
+    <t>El usuario podrá ver y  eliminar  notificaciones a cerca de sucesos importantes según el sistema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOTIFICACIONES </t>
+  </si>
+  <si>
+    <t>Notificaciones repetidas , notificacion no se muestran.</t>
+  </si>
+  <si>
+    <t>El usuario podrá recibir por medio de su correo electronico su contraseña.</t>
+  </si>
+  <si>
+    <t>Ingresa un correo erróneo</t>
+  </si>
+  <si>
+    <t>Usuario no registrado, no llego la contraseña al correo</t>
+  </si>
+  <si>
+    <t>1.El usuario da click en ver sobre un paciente.
+2.Se despliega información referente al paciente.                                                   3. El usuario ve las variables de su paciente.</t>
+  </si>
+  <si>
+    <t>El usuario pude visualizar información referente
+al paciente como: datos personales y variables
+siendo monitorizadas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.El usuario no da click en ver sobre un paciente.
+</t>
+  </si>
+  <si>
+    <t>1.La aplicación no muestra la información referente al paciente.
+2.La aplicación no muestra las variables completas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanto el usuario(paciente) como el médico deben tener una cuenta de correo electronico. </t>
+  </si>
+  <si>
+    <t>El médico introducirá datos personales del paciente.</t>
+  </si>
+  <si>
+    <t>Los datos no son correctos, registro incompleto.</t>
+  </si>
+  <si>
+    <t>1.No se crea el usuario.                                                                                                                         2.El usuario ya existe</t>
+  </si>
+  <si>
+    <t>ADMINISTRAR NODOS  (MENU)</t>
+  </si>
+  <si>
+    <t>Haber iniciado sesion correctamente y tener  el kit de monitoreo.</t>
+  </si>
+  <si>
+    <t>El usuario puede ver o agregar dispositivos nuevos al sistema de una forma sencilla y útil, además de asignar pacientes a los dispositivos.</t>
+  </si>
+  <si>
     <t>1.El usuario no encuentra como agregar dispositivo.
-2.El ususario decide no agregar el dispositivo adicional.</t>
+2.El usuario decide no agregar el dispositivo adicional.</t>
+  </si>
+  <si>
+    <t>1.La aplicación falla al momento de agregar el dispositivo.
+2.La aplicación no permite agregar dispositivos adicionales.                         3. No se encuentra el dispositivo a ver/agregar</t>
+  </si>
+  <si>
+    <t>El usuario podra visualizar los pacientes que tiene asignados, así como agregar o verlos, además de tener un apartado con sus datos personales donde puede modificarlos , ver sus notificaciones y podrá manejar sus kits de monitoreo para administrar los pacientes asignados a cada uno, es decir los nodos.</t>
+  </si>
+  <si>
+    <t>1.El usuario cierra su sesión.
+2. El médico agrega/elimina un paciente.</t>
+  </si>
+  <si>
+    <t>1. La aplicación no muestra la información adecuada o incompleta.        2. No se pueden realizar los cambios requeridos.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -347,20 +319,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -675,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G50"/>
+  <dimension ref="B1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -691,22 +666,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C1" s="6" t="s">
-        <v>33</v>
+      <c r="C1" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>50</v>
+      <c r="G3" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
@@ -714,13 +689,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
@@ -728,13 +703,13 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -742,13 +717,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -756,13 +731,13 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -770,55 +745,55 @@
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
+      <c r="G10" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>61</v>
+      <c r="C13" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>42</v>
+      <c r="G13" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
@@ -826,13 +801,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
@@ -840,55 +815,55 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" ht="30.75" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="60.75" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="75.75" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G17" t="s">
-        <v>64</v>
+      <c r="G17" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="30.75" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>63</v>
+      <c r="C18" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="30.75" x14ac:dyDescent="0.3">
@@ -896,55 +871,55 @@
         <v>6</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="30.75" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C20" t="s">
-        <v>16</v>
+      <c r="C20" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G20" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>49</v>
+      <c r="C23" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G23" s="4" t="s">
-        <v>44</v>
+      <c r="G23" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>23</v>
+      <c r="C24" t="s">
+        <v>32</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
@@ -952,13 +927,13 @@
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G25" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="30.75" x14ac:dyDescent="0.3">
@@ -966,83 +941,83 @@
         <v>3</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" ht="60.75" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="30.75" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" ht="60.75" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="45.75" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" ht="60.75" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="30.75" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="45.75" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G30" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>60</v>
+      <c r="C33" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G33" s="4" t="s">
-        <v>52</v>
+      <c r="G33" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
@@ -1050,13 +1025,13 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
@@ -1064,13 +1039,13 @@
         <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="2:7" ht="30.75" x14ac:dyDescent="0.3">
@@ -1078,7 +1053,7 @@
         <v>3</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>3</v>
@@ -1087,12 +1062,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="2:7" ht="75.75" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7" ht="45.75" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>5</v>
@@ -1101,109 +1076,45 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="2:7" ht="60.75" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:7" ht="45.75" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" ht="45.75" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" ht="30.75" x14ac:dyDescent="0.3">
       <c r="B39" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" ht="60.75" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" ht="30.75" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G40" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B43" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B44" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C44" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B45" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C45" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="B46" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="B47" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" ht="45.75" x14ac:dyDescent="0.3">
-      <c r="B48" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="B49" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="B50" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" s="2" t="s">
+      <c r="G40" s="2" t="s">
         <v>59</v>
       </c>
     </row>

--- a/Diseño/DCU_Tables_Medico.xlsx
+++ b/Diseño/DCU_Tables_Medico.xlsx
@@ -172,16 +172,10 @@
     <t xml:space="preserve">  RF3</t>
   </si>
   <si>
-    <t>NOTIFICACIONES (PRINCIPAL)</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Se despliega una lista de notificaciones con sus opciones.
 </t>
   </si>
   <si>
-    <t>RECUPERAR PWD</t>
-  </si>
-  <si>
     <t>El usuario debe tener una cuenta de correo electronico, haberse registrado previamente.</t>
   </si>
   <si>
@@ -195,9 +189,6 @@
     <t>Usuario no registrado.</t>
   </si>
   <si>
-    <t>LISTA PACIENTES (MENU)</t>
-  </si>
-  <si>
     <t>REGISTRO MÉDICO</t>
   </si>
   <si>
@@ -230,12 +221,6 @@
 2.La aplicación no permite agregar dispositivos adicionales.</t>
   </si>
   <si>
-    <t>VISTA PACIENTE DATOS Y VARIABLES (MENU)</t>
-  </si>
-  <si>
-    <t>MENU  (PRINCIPAL)</t>
-  </si>
-  <si>
     <t>El usuario podra visualizar los pacientes que tiene asignados
 además de tener un apartado con sus datos personales donde puede modificarlos , ver sus notificaiones y podrà manejar sus kits de monitoreo para administrar los pacientes asignados a cada uno.</t>
   </si>
@@ -245,11 +230,6 @@
   </si>
   <si>
     <t>El usuario podrá recibir y  eliminar  notificaciones a cerca de sucesos importantes.</t>
-  </si>
-  <si>
-    <t>El usuario podrá visualizar en una lista  a sus
-pacientes en esta puede aplicar alguna de las siguientes
-operaciones : visualizar información del paciente seleccionado, eliminar  y  agregar  un paciente.</t>
   </si>
   <si>
     <t>1. Se despliega una lista de pacientes
@@ -258,13 +238,7 @@
 importaran automáticamente los datos de este a su lista.</t>
   </si>
   <si>
-    <t>ADMINISTRAR NODODS  (MENU)</t>
-  </si>
-  <si>
     <t>Haber iniciado sesion correctamente y tener  el kit de monitoreo que su mèdico le proporcionarà.</t>
-  </si>
-  <si>
-    <t>El usuario puede agregar el dispositivo al sistema de una forma sencilla y útil, ademàs de asignar pacientes a este.</t>
   </si>
   <si>
     <t xml:space="preserve">1. El usuario selecciona o crea un  nodo.
@@ -274,13 +248,39 @@
   <si>
     <t>1.El usuario no encuentra como agregar dispositivo.
 2.El ususario decide no agregar el dispositivo adicional.</t>
+  </si>
+  <si>
+    <t>El usuario podrá visualizar en una lista  a sus
+pacientes en esta puede aplicar alguna de las siguientes
+operaciones : visualizar los datos personales y mediciones del paciente seleccionado, eliminar  y  agregar  un paciente.</t>
+  </si>
+  <si>
+    <t>El usuario puede agregar el dispositivo al sistema de una forma sencilla y útil, ademàs de asignar pacientes y variables a este.</t>
+  </si>
+  <si>
+    <t>LISTA PACIENTES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOTIFICACIÓNES </t>
+  </si>
+  <si>
+    <t>RECUPERAR CONTRASEÑA</t>
+  </si>
+  <si>
+    <t>VISTA PACIENTE DATOS Y MEDICIÓNES</t>
+  </si>
+  <si>
+    <t>ADMINISTRAR NODOS</t>
+  </si>
+  <si>
+    <t>MENÚ PACIENTES</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -302,7 +302,16 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="22"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -330,7 +339,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249977111117893"/>
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,7 +356,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -361,6 +370,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -677,8 +687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -706,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
@@ -734,7 +744,7 @@
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -812,13 +822,13 @@
         <v>0</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
@@ -868,13 +878,13 @@
         <v>5</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G17" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="30.75" x14ac:dyDescent="0.3">
@@ -882,13 +892,13 @@
         <v>4</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="30.75" x14ac:dyDescent="0.3">
@@ -924,13 +934,13 @@
         <v>0</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
@@ -972,7 +982,7 @@
         <v>3</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="60.75" x14ac:dyDescent="0.3">
@@ -980,13 +990,13 @@
         <v>5</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="60.75" x14ac:dyDescent="0.3">
@@ -994,13 +1004,13 @@
         <v>4</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="60.75" x14ac:dyDescent="0.3">
@@ -1028,7 +1038,7 @@
         <v>7</v>
       </c>
       <c r="G30" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
@@ -1036,13 +1046,13 @@
         <v>0</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
@@ -1056,7 +1066,7 @@
         <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
@@ -1084,7 +1094,7 @@
         <v>3</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="2:7" ht="75.75" x14ac:dyDescent="0.3">
@@ -1098,7 +1108,7 @@
         <v>5</v>
       </c>
       <c r="G37" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="2:7" ht="60.75" x14ac:dyDescent="0.3">
@@ -1112,7 +1122,7 @@
         <v>4</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="2:7" ht="45.75" x14ac:dyDescent="0.3">
@@ -1126,7 +1136,7 @@
         <v>6</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="2:7" ht="60.75" x14ac:dyDescent="0.3">
@@ -1136,6 +1146,7 @@
       <c r="C40" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="E40" s="7"/>
       <c r="F40" s="1" t="s">
         <v>7</v>
       </c>
@@ -1148,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
@@ -1156,7 +1167,7 @@
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
@@ -1172,7 +1183,7 @@
         <v>3</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="2:7" ht="30.75" x14ac:dyDescent="0.3">
@@ -1180,7 +1191,7 @@
         <v>5</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="2:7" ht="45.75" x14ac:dyDescent="0.3">
@@ -1188,7 +1199,7 @@
         <v>4</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="2:3" ht="30.75" x14ac:dyDescent="0.3">
@@ -1196,7 +1207,7 @@
         <v>6</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="2:3" ht="30.75" x14ac:dyDescent="0.3">
@@ -1204,7 +1215,7 @@
         <v>7</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
